--- a/KEFI NPV Calculator, Nov '25.xlsx
+++ b/KEFI NPV Calculator, Nov '25.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\OneDrive\Documents\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BDC9D6-A587-496C-9057-4599BBEABA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7486CE-2CB3-46D3-AD50-44B5639B5E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="U2cq71/PgXgCj5M25tsTJ4uN2OVO0PPLKgLZ9NTT6pGCzLXytZswWDzDifPpsVU3Wbq6PsZ06g+dNi7btLTzPA==" workbookSaltValue="JepOXH/y5TEG50GWC/UG1Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{88904CA7-1A8B-40B4-A864-3AD789EF10D9}"/>
   </bookViews>
@@ -140,12 +141,6 @@
     <t>Valuation of SA assets, other lincenses, etc</t>
   </si>
   <si>
-    <t>Figures (1moz)</t>
-  </si>
-  <si>
-    <t>Figures (3moz)</t>
-  </si>
-  <si>
     <t>AISC ($), inc debt repayment</t>
   </si>
   <si>
@@ -153,6 +148,12 @@
   </si>
   <si>
     <t>Net cashflow, total KEFI portion ($)</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Blue Sky</t>
   </si>
 </sst>
 </file>
@@ -256,7 +257,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,7 +290,6 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -610,7 +610,7 @@
   <dimension ref="B3:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9">
         <v>1000</v>
@@ -693,18 +693,18 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="18">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
         <v>0.8</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="11">
         <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <f>C10*C11</f>
@@ -928,7 +928,7 @@
       <c r="D32" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pcluCT17xNh5aqvDQMyhhTKz7YUkU52IngTdpJ5LRs8E5KMe1WXJBymxk1OWpzVzHULROmhJva1RXyoOy6JLgw==" saltValue="7DFD7mzyneBTPIBT3PH3vw==" spinCount="100000" sheet="1" formatCells="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1U9wZE1fru3nbWyKfT1ZB75XiPLQDWrkeYBK9VcetcVp0uSjPSCurow3ekbHW/KdzA0HfH8dvb5VaYPutDu4cQ==" saltValue="lGuB2cx4ZZBs36pQNvj5fA==" spinCount="100000" sheet="1" formatCells="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
